--- a/戴森球计划 物品id列表及公式id列表.xlsx
+++ b/戴森球计划 物品id列表及公式id列表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murphy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murphy/Workspace/DysonSphereProgramCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13205FF4-FE5E-2A4F-8084-8D6C8527EC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB7805E-2FFE-7747-98EA-88E9F3153300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="500" windowWidth="14260" windowHeight="20320" xr2:uid="{FEBCE5CB-A7B3-DF43-8281-A96C52D9B2EA}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="14260" windowHeight="20320" activeTab="1" xr2:uid="{FEBCE5CB-A7B3-DF43-8281-A96C52D9B2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="605">
   <si>
     <t>ore_0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2147,6 +2147,10 @@
   </si>
   <si>
     <t>icon_StoneOre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电器充电（能量枢纽）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2513,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09BB64-539E-C944-B8D3-C2E2ECD0525C}">
   <dimension ref="A2:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView topLeftCell="A61" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3921,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C94579-DE9B-C649-AB70-B6D6C2E84FD2}">
   <dimension ref="A2:B123"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4879,6 +4883,9 @@
       <c r="A120" t="s">
         <v>599</v>
       </c>
+      <c r="B120" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">

--- a/戴森球计划 物品id列表及公式id列表.xlsx
+++ b/戴森球计划 物品id列表及公式id列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murphy/Workspace/DysonSphereProgramCalculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB7805E-2FFE-7747-98EA-88E9F3153300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FF0F24-59BC-B548-9DAC-2E8EBA2967C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="500" windowWidth="14260" windowHeight="20320" activeTab="1" xr2:uid="{FEBCE5CB-A7B3-DF43-8281-A96C52D9B2EA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="604">
   <si>
     <t>ore_0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -889,9 +889,6 @@
   <si>
     <t>喷涂机</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原油精炼厂</t>
   </si>
   <si>
     <t>原油精炼厂</t>
@@ -2517,8 +2514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09BB64-539E-C944-B8D3-C2E2ECD0525C}">
   <dimension ref="A2:C127"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A7" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2536,7 +2533,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2547,7 +2544,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2558,18 +2555,18 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2580,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2591,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2602,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2613,7 +2610,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2624,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2635,7 +2632,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2646,7 +2643,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2657,18 +2654,18 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2679,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2690,7 +2687,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2701,7 +2698,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2712,7 +2709,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2723,7 +2720,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2734,7 +2731,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2745,7 +2742,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2756,7 +2753,7 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2767,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2778,7 +2775,7 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2789,7 +2786,7 @@
         <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2800,7 +2797,7 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2808,10 +2805,10 @@
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2822,7 +2819,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2833,18 +2830,18 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2855,7 +2852,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2866,7 +2863,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2877,7 +2874,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2888,7 +2885,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2899,7 +2896,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2910,7 +2907,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2921,7 +2918,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2932,7 +2929,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2943,7 +2940,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2954,7 +2951,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2965,7 +2962,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2976,7 +2973,7 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2987,7 +2984,7 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2998,7 +2995,7 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3009,7 +3006,7 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3020,7 +3017,7 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3031,7 +3028,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3042,7 +3039,7 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3053,7 +3050,7 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3064,7 +3061,7 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3075,7 +3072,7 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -3086,7 +3083,7 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -3097,18 +3094,18 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -3119,7 +3116,7 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3130,7 +3127,7 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -3141,7 +3138,7 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3152,7 +3149,7 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -3163,7 +3160,7 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -3174,7 +3171,7 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -3185,7 +3182,7 @@
         <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -3196,7 +3193,7 @@
         <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -3207,7 +3204,7 @@
         <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -3218,7 +3215,7 @@
         <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -3229,7 +3226,7 @@
         <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -3240,7 +3237,7 @@
         <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -3251,7 +3248,7 @@
         <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -3262,7 +3259,7 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -3273,7 +3270,7 @@
         <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3284,7 +3281,7 @@
         <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -3295,7 +3292,7 @@
         <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -3306,7 +3303,7 @@
         <v>135</v>
       </c>
       <c r="C72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -3317,7 +3314,7 @@
         <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -3328,7 +3325,7 @@
         <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -3339,7 +3336,7 @@
         <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -3350,7 +3347,7 @@
         <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -3361,7 +3358,7 @@
         <v>65</v>
       </c>
       <c r="C77" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -3372,7 +3369,7 @@
         <v>66</v>
       </c>
       <c r="C78" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -3383,7 +3380,7 @@
         <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3394,7 +3391,7 @@
         <v>68</v>
       </c>
       <c r="C80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -3405,18 +3402,18 @@
         <v>69</v>
       </c>
       <c r="C81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B82" t="s">
         <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -3427,7 +3424,7 @@
         <v>158</v>
       </c>
       <c r="C83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -3438,7 +3435,7 @@
         <v>160</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -3449,7 +3446,7 @@
         <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -3460,7 +3457,7 @@
         <v>164</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -3471,7 +3468,7 @@
         <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -3482,7 +3479,7 @@
         <v>168</v>
       </c>
       <c r="C88" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -3493,7 +3490,7 @@
         <v>170</v>
       </c>
       <c r="C89" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -3504,7 +3501,7 @@
         <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -3515,7 +3512,7 @@
         <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -3526,7 +3523,7 @@
         <v>175</v>
       </c>
       <c r="C92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -3537,7 +3534,7 @@
         <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -3548,7 +3545,7 @@
         <v>189</v>
       </c>
       <c r="C94" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -3559,7 +3556,7 @@
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -3570,7 +3567,7 @@
         <v>193</v>
       </c>
       <c r="C96" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -3581,7 +3578,7 @@
         <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -3592,7 +3589,7 @@
         <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -3603,7 +3600,7 @@
         <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3614,7 +3611,7 @@
         <v>205</v>
       </c>
       <c r="C100" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -3625,7 +3622,7 @@
         <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3636,7 +3633,7 @@
         <v>207</v>
       </c>
       <c r="C102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -3647,7 +3644,7 @@
         <v>209</v>
       </c>
       <c r="C103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -3658,7 +3655,7 @@
         <v>211</v>
       </c>
       <c r="C104" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -3669,7 +3666,7 @@
         <v>213</v>
       </c>
       <c r="C105" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3680,7 +3677,7 @@
         <v>224</v>
       </c>
       <c r="C106" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -3691,7 +3688,7 @@
         <v>226</v>
       </c>
       <c r="C107" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -3702,7 +3699,7 @@
         <v>227</v>
       </c>
       <c r="C108" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -3713,205 +3710,205 @@
         <v>232</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B110" t="s">
         <v>234</v>
       </c>
       <c r="C110" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B111" t="s">
         <v>238</v>
       </c>
       <c r="C111" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" t="s">
         <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B113" t="s">
         <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B114" t="s">
         <v>242</v>
       </c>
       <c r="C114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C116" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B120" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C120" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C122" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B123" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C123" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B126" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3925,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C94579-DE9B-C649-AB70-B6D6C2E84FD2}">
   <dimension ref="A2:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3937,79 +3934,79 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" t="s">
         <v>415</v>
-      </c>
-      <c r="B2" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -4017,7 +4014,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
@@ -4025,7 +4022,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
@@ -4033,7 +4030,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4041,7 +4038,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -4049,31 +4046,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
         <v>34</v>
@@ -4081,15 +4078,15 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -4097,7 +4094,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -4105,7 +4102,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4113,167 +4110,167 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B25" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B30" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B41" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B44" t="s">
         <v>55</v>
@@ -4281,39 +4278,39 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
@@ -4321,215 +4318,215 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B50" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B51" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B52" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B58" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B59" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B61" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B62" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B63" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B64" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B66" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B68" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B70" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B71" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B72" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B74" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B75" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B76" t="s">
         <v>157</v>
@@ -4537,7 +4534,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B77" t="s">
         <v>159</v>
@@ -4545,7 +4542,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s">
         <v>161</v>
@@ -4553,7 +4550,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B79" t="s">
         <v>163</v>
@@ -4561,7 +4558,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B80" t="s">
         <v>165</v>
@@ -4569,7 +4566,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B81" t="s">
         <v>167</v>
@@ -4577,7 +4574,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
@@ -4585,7 +4582,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B83" t="s">
         <v>171</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B84" t="s">
         <v>173</v>
@@ -4601,7 +4598,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B85" t="s">
         <v>186</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B86" t="s">
         <v>188</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s">
         <v>190</v>
@@ -4625,7 +4622,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s">
         <v>192</v>
@@ -4633,7 +4630,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B89" t="s">
         <v>198</v>
@@ -4641,7 +4638,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B90" t="s">
         <v>200</v>
@@ -4649,7 +4646,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B91" t="s">
         <v>202</v>
@@ -4657,7 +4654,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B92" t="s">
         <v>204</v>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s">
         <v>206</v>
@@ -4673,7 +4670,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B94" t="s">
         <v>207</v>
@@ -4681,7 +4678,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B95" t="s">
         <v>208</v>
@@ -4689,7 +4686,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B96" t="s">
         <v>210</v>
@@ -4697,7 +4694,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B97" t="s">
         <v>212</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B98" t="s">
         <v>223</v>
@@ -4713,7 +4710,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B99" t="s">
         <v>225</v>
@@ -4721,7 +4718,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B100" t="s">
         <v>227</v>
@@ -4729,7 +4726,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B101" t="s">
         <v>231</v>
@@ -4737,7 +4734,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B102" t="s">
         <v>233</v>
@@ -4745,7 +4742,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B103" t="s">
         <v>235</v>
@@ -4753,7 +4750,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B104" t="s">
         <v>236</v>
@@ -4761,7 +4758,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B105" t="s">
         <v>237</v>
@@ -4769,7 +4766,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B106" t="s">
         <v>241</v>
@@ -4777,7 +4774,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B107" t="s">
         <v>243</v>
@@ -4785,125 +4782,132 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>600</v>
+        <v>599</v>
+      </c>
+      <c r="B121" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>601</v>
+        <v>600</v>
+      </c>
+      <c r="B122" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>